--- a/Resultado/informe_mensual_marzo_2025.xlsx
+++ b/Resultado/informe_mensual_marzo_2025.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slenis.BANCOLOMBIA\Documents\projecto_dashboard\Resultado\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A0064F-C491-4A46-A85B-8B360147D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,7 +88,7 @@
     <t>Valor transacciones</t>
   </si>
   <si>
-    <t>1.41%</t>
+    <t>1.46%</t>
   </si>
   <si>
     <t>25.29%</t>
@@ -103,22 +97,22 @@
     <t>22.83%</t>
   </si>
   <si>
-    <t>19.5%</t>
-  </si>
-  <si>
-    <t>10.5%</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>81.32%</t>
+    <t>26.25%</t>
+  </si>
+  <si>
+    <t>7.92%</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>82.25%</t>
   </si>
   <si>
     <t>7,612,035,035,395</t>
   </si>
   <si>
-    <t>1.07%</t>
+    <t>1.12%</t>
   </si>
   <si>
     <t>29.61%</t>
@@ -127,10 +121,10 @@
     <t>22.25%</t>
   </si>
   <si>
-    <t>56.5%</t>
-  </si>
-  <si>
-    <t>13.5%</t>
+    <t>55.83%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
   </si>
   <si>
     <t>8,677,504,600,371</t>
@@ -145,10 +139,10 @@
     <t>45.09%</t>
   </si>
   <si>
-    <t>76.0%</t>
-  </si>
-  <si>
-    <t>24.0%</t>
+    <t>82.08%</t>
+  </si>
+  <si>
+    <t>17.92%</t>
   </si>
   <si>
     <t>16,289,539,635,766</t>
@@ -157,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,21 +215,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +259,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -307,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,10 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,19 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -555,10 +534,10 @@
         <v>8729</v>
       </c>
       <c r="D2">
-        <v>17042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -572,21 +551,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -600,7 +579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -614,21 +593,21 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -642,7 +621,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -656,7 +635,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -670,7 +649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -684,7 +663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -698,35 +677,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -740,7 +719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -754,7 +733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -768,7 +747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -782,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -796,7 +775,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -810,7 +789,7 @@
         <v>48046150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>

--- a/Resultado/informe_mensual_marzo_2025.xlsx
+++ b/Resultado/informe_mensual_marzo_2025.xlsx
@@ -91,16 +91,16 @@
     <t>1.46%</t>
   </si>
   <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>22.83%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>7.92%</t>
+    <t>25.31%</t>
+  </si>
+  <si>
+    <t>22.76%</t>
+  </si>
+  <si>
+    <t>25.83%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
   </si>
   <si>
     <t>4.80</t>
@@ -109,34 +109,34 @@
     <t>82.25%</t>
   </si>
   <si>
-    <t>7,612,035,035,395</t>
-  </si>
-  <si>
-    <t>1.12%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
+    <t>7,312,851,083,792</t>
+  </si>
+  <si>
+    <t>1.11%</t>
+  </si>
+  <si>
+    <t>29.62%</t>
   </si>
   <si>
     <t>22.25%</t>
   </si>
   <si>
-    <t>55.83%</t>
-  </si>
-  <si>
-    <t>10.0%</t>
-  </si>
-  <si>
-    <t>8,677,504,600,371</t>
+    <t>56.25%</t>
+  </si>
+  <si>
+    <t>9.58%</t>
+  </si>
+  <si>
+    <t>8,332,918,568,409</t>
   </si>
   <si>
     <t>1.95%</t>
   </si>
   <si>
-    <t>54.91%</t>
-  </si>
-  <si>
-    <t>45.09%</t>
+    <t>54.97%</t>
+  </si>
+  <si>
+    <t>45.03%</t>
   </si>
   <si>
     <t>82.08%</t>
@@ -145,7 +145,7 @@
     <t>17.92%</t>
   </si>
   <si>
-    <t>16,289,539,635,766</t>
+    <t>15,645,769,652,201</t>
   </si>
 </sst>
 </file>
@@ -528,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8310</v>
+        <v>8288</v>
       </c>
       <c r="C2">
-        <v>8729</v>
+        <v>8709</v>
       </c>
       <c r="D2">
-        <v>17040</v>
+        <v>16997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -556,13 +556,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -598,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -682,10 +682,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>197</v>
@@ -696,10 +696,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>43</v>
@@ -780,13 +780,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>22112036</v>
+        <v>21251053</v>
       </c>
       <c r="C20">
-        <v>25934114</v>
+        <v>24924103</v>
       </c>
       <c r="D20">
-        <v>48046150</v>
+        <v>46175156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
